--- a/performances/performance_data.xlsx
+++ b/performances/performance_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c_wal\Google Drive\Drive partagés\BLACKROB\5. web\RAMAdvisor\performances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F38F5B5-30E8-4D5C-92AD-84FE3AF859C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79FB509-FEB0-4A6B-8B08-9DEC5933FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{229398D0-8FA4-40C1-B30B-5B41F1C73D23}"/>
+    <workbookView xWindow="-29640" yWindow="2430" windowWidth="29010" windowHeight="11295" xr2:uid="{229398D0-8FA4-40C1-B30B-5B41F1C73D23}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F16"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,82 +473,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B2">
-        <v>3.0761548643010644E-2</v>
+        <v>6.4471007967246306E-3</v>
       </c>
       <c r="C2">
-        <v>6.1882622296784706E-2</v>
+        <v>1.2341359822100186E-2</v>
       </c>
       <c r="D2">
-        <v>9.1874907565225469E-2</v>
+        <v>1.8296921641693546E-2</v>
       </c>
       <c r="E2">
-        <v>0.12778969690664854</v>
+        <v>2.7291457406609817E-2</v>
       </c>
       <c r="F2">
-        <v>0.15383102545270211</v>
+        <v>3.543707064261211E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B3">
-        <v>7.477963736832606E-2</v>
+        <v>3.6882051069883362E-2</v>
       </c>
       <c r="C3">
-        <v>0.12965575983259514</v>
+        <v>8.1317812688068369E-2</v>
       </c>
       <c r="D3">
-        <v>0.18728893740515337</v>
+        <v>0.12340153745392191</v>
       </c>
       <c r="E3">
-        <v>0.25575661311845954</v>
+        <v>0.17386695931834592</v>
       </c>
       <c r="F3">
-        <v>0.30514520871045775</v>
+        <v>0.21112892903018099</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B4">
-        <v>0.14451206103954217</v>
+        <v>8.1333633060545626E-2</v>
       </c>
       <c r="C4">
-        <v>0.23535373992852429</v>
+        <v>0.15100088578567541</v>
       </c>
       <c r="D4">
-        <v>0.32534839912596936</v>
+        <v>0.22223623891250135</v>
       </c>
       <c r="E4">
-        <v>0.42270952532384248</v>
+        <v>0.30726910921625117</v>
       </c>
       <c r="F4">
-        <v>0.48853036820677864</v>
+        <v>0.36950369483328893</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B5">
-        <v>2.9137541967921839E-2</v>
+        <v>0.1516077170584505</v>
       </c>
       <c r="C5">
-        <v>9.4175674568070619E-2</v>
+        <v>0.25944624586948567</v>
       </c>
       <c r="D5">
-        <v>0.16523847275211945</v>
+        <v>0.36498795756002622</v>
       </c>
       <c r="E5">
-        <v>0.2457952159596688</v>
+        <v>0.48109137948054798</v>
       </c>
       <c r="F5">
-        <v>0.29855139702302669</v>
+        <v>0.56130066738852546</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -556,19 +556,19 @@
         <v>2020</v>
       </c>
       <c r="B6">
-        <v>4.8320174789220738E-2</v>
+        <v>5.5171344149272675E-2</v>
       </c>
       <c r="C6">
-        <v>0.18248160228134958</v>
+        <v>0.20767187120756059</v>
       </c>
       <c r="D6">
-        <v>0.32581243952526029</v>
+        <v>0.36774369452813427</v>
       </c>
       <c r="E6">
-        <v>0.48965029614316796</v>
+        <v>0.55185901544060012</v>
       </c>
       <c r="F6">
-        <v>0.60060226741246903</v>
+        <v>0.67833683059315319</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,19 +576,19 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>8.9623079725976079E-2</v>
+        <v>0.15921548350038967</v>
       </c>
       <c r="C7">
-        <v>0.26441344233334546</v>
+        <v>0.46446447292351262</v>
       </c>
       <c r="D7">
-        <v>0.44356052954878</v>
+        <v>0.76970816972160905</v>
       </c>
       <c r="E7">
-        <v>0.64622622210440006</v>
+        <v>1.1126408931882199</v>
       </c>
       <c r="F7">
-        <v>0.78622396627985192</v>
+        <v>1.3520210206088474</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,39 +596,39 @@
         <v>2010</v>
       </c>
       <c r="B8">
-        <v>0.1509770330498654</v>
+        <v>0.4669383262582365</v>
       </c>
       <c r="C8">
-        <v>0.43043791416203736</v>
+        <v>1.0562260881675967</v>
       </c>
       <c r="D8">
-        <v>0.71204850858033963</v>
+        <v>1.6209532172132124</v>
       </c>
       <c r="E8">
-        <v>1.025921363431354</v>
+        <v>2.2127820870355763</v>
       </c>
       <c r="F8">
-        <v>1.2428668393768389</v>
+        <v>2.6062888145621161</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.45568756783728359</v>
+        <v>0.63821677980009128</v>
       </c>
       <c r="C9">
-        <v>1.0051983929804429</v>
+        <v>1.1360721617913663</v>
       </c>
       <c r="D9">
-        <v>1.5336106993812342</v>
+        <v>1.6147076403816267</v>
       </c>
       <c r="E9">
-        <v>2.0813768142491678</v>
+        <v>2.1575969752138202</v>
       </c>
       <c r="F9">
-        <v>2.4412891225752249</v>
+        <v>2.5478949677804814</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
